--- a/2024/shuffle-architecute/Teste10/content/results/metrics_2_1.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_2_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,38 +488,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_3</t>
+          <t>model_2_1_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.92216260034041</v>
+        <v>0.8797177875911576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7791221174942992</v>
+        <v>0.7739116299542252</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6204378586012755</v>
+        <v>0.9468402613118313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9933789193176298</v>
+        <v>0.9252076501113675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9741656295115909</v>
+        <v>0.9424081785676811</v>
       </c>
       <c r="G2" t="n">
-        <v>0.326666921377182</v>
+        <v>0.5047986507415771</v>
       </c>
       <c r="H2" t="n">
-        <v>1.477011442184448</v>
+        <v>1.51185405254364</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3062632381916046</v>
+        <v>0.3010208606719971</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09766411036252975</v>
+        <v>0.3190347254276276</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2019636631011963</v>
+        <v>0.3100276589393616</v>
       </c>
     </row>
     <row r="3">
@@ -529,182 +529,182 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9107908649271821</v>
+        <v>0.8868856594846961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7790578469226448</v>
+        <v>0.773422694270522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6995831407368911</v>
+        <v>0.9134141963034844</v>
       </c>
       <c r="E3" t="n">
-        <v>0.994786123922256</v>
+        <v>0.8989056557805886</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9795776286378902</v>
+        <v>0.9144069725847743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3743916451931</v>
+        <v>0.4747166931629181</v>
       </c>
       <c r="H3" t="n">
-        <v>1.477441310882568</v>
+        <v>1.515123605728149</v>
       </c>
       <c r="I3" t="n">
-        <v>0.242402046918869</v>
+        <v>0.4902984201908112</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07690716534852982</v>
+        <v>0.4312286674976349</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1596546471118927</v>
+        <v>0.4607634246349335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_4</t>
+          <t>model_2_1_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9303561966153078</v>
+        <v>0.8653985251347918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7774659048221935</v>
+        <v>0.7718044026694905</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5294942923034367</v>
+        <v>0.9709348039503057</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9919241758381014</v>
+        <v>0.9467984877898038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9680999169059513</v>
+        <v>0.9636348859921333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2922801375389099</v>
+        <v>0.5648936033248901</v>
       </c>
       <c r="H4" t="n">
-        <v>1.488086462020874</v>
+        <v>1.525944948196411</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3796443045139313</v>
+        <v>0.1645837724208832</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1191222667694092</v>
+        <v>0.2269367128610611</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2493831962347031</v>
+        <v>0.1957602798938751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_1</t>
+          <t>model_2_1_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.89525848562877</v>
+        <v>0.8885332281412295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.776789384965212</v>
+        <v>0.7710170844551941</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7577807914014875</v>
+        <v>0.872958881408061</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9961362247847401</v>
+        <v>0.8698751323967386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9838547232202203</v>
+        <v>0.8816276886032316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4395776987075806</v>
+        <v>0.4678021967411041</v>
       </c>
       <c r="H5" t="n">
-        <v>1.492610454559326</v>
+        <v>1.531209945678711</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1954431980848312</v>
+        <v>0.7193795442581177</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0569925345480442</v>
+        <v>0.5550614595413208</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1262178719043732</v>
+        <v>0.6372205018997192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_5</t>
+          <t>model_2_1_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9360965211325575</v>
+        <v>0.8861057684293882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7745055684075123</v>
+        <v>0.7671847816838184</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4322840471736569</v>
+        <v>0.8273640393883755</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9904321577503841</v>
+        <v>0.8403293422108394</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9616755955370384</v>
+        <v>0.8459410973116673</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2681892216205597</v>
+        <v>0.4779897034168243</v>
       </c>
       <c r="H6" t="n">
-        <v>1.507882356643677</v>
+        <v>1.556836485862732</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4580818116664886</v>
+        <v>0.9775636196136475</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1411302536725998</v>
+        <v>0.6810922026634216</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2996061742305756</v>
+        <v>0.8293281197547913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_0</t>
+          <t>model_2_1_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.874225536501364</v>
+        <v>0.8808570858626225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7717509676824851</v>
+        <v>0.7623280860737645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7802732299443443</v>
+        <v>0.7783475701849998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9974137965274479</v>
+        <v>0.8124106640199638</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9862207619301463</v>
+        <v>0.8090995940116025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.527848482131958</v>
+        <v>0.5000172853469849</v>
       </c>
       <c r="H7" t="n">
-        <v>1.526302337646484</v>
+        <v>1.589313268661499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1772943735122681</v>
+        <v>1.255122900009155</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03814774006605148</v>
+        <v>0.8001823425292969</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1077210530638695</v>
+        <v>1.027652978897095</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9399321054936037</v>
+        <v>0.8737779069230711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.770608682045918</v>
+        <v>0.7568053438145433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3323335341621212</v>
+        <v>0.7274626265744478</v>
       </c>
       <c r="E8" t="n">
-        <v>0.988914355340435</v>
+        <v>0.7875097882255249</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9550855843177966</v>
+        <v>0.7724710604889162</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2520920932292938</v>
+        <v>0.5297271013259888</v>
       </c>
       <c r="H8" t="n">
-        <v>1.53394079208374</v>
+        <v>1.626243829727173</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5387304425239563</v>
+        <v>1.543262720108032</v>
       </c>
       <c r="J8" t="n">
-        <v>0.163518562912941</v>
+        <v>0.9063996076583862</v>
       </c>
       <c r="K8" t="n">
-        <v>0.351124495267868</v>
+        <v>1.224831223487854</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9422913705622245</v>
+        <v>0.865578943733282</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7661004658937729</v>
+        <v>0.7509177816853507</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232149528161903</v>
+        <v>0.676009607987583</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9873835726191953</v>
+        <v>0.7660672811526695</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9484712489269839</v>
+        <v>0.736913883062833</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2421907633543015</v>
+        <v>0.5641363859176636</v>
       </c>
       <c r="H9" t="n">
-        <v>1.564087390899658</v>
+        <v>1.665614128112793</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6195675134658813</v>
+        <v>1.834619045257568</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1860983371734619</v>
+        <v>0.9978649616241455</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4028329253196716</v>
+        <v>1.416242241859436</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.943518362287927</v>
+        <v>0.856744761984371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7612577058404016</v>
+        <v>0.7449010202828689</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1336826107711971</v>
+        <v>0.6250301238075877</v>
       </c>
       <c r="E10" t="n">
-        <v>0.985855474878902</v>
+        <v>0.74783352475225</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9419480532862554</v>
+        <v>0.7028771717395298</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2370413392782211</v>
+        <v>0.6012116074562073</v>
       </c>
       <c r="H10" t="n">
-        <v>1.596470832824707</v>
+        <v>1.705847978591919</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6990189552307129</v>
+        <v>2.123294353485107</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2086385190486908</v>
+        <v>1.075642943382263</v>
       </c>
       <c r="K10" t="n">
-        <v>0.453828901052475</v>
+        <v>1.599468231201172</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9438932358671137</v>
+        <v>0.8476074365400064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.75630127206168</v>
+        <v>0.7389328860973874</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03846918938978616</v>
+        <v>0.5753677301185255</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9843492857515982</v>
+        <v>0.7322072905301995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.935613455540337</v>
+        <v>0.6705661835637144</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2354681044816971</v>
+        <v>0.6395589709281921</v>
       </c>
       <c r="H11" t="n">
-        <v>1.629614591598511</v>
+        <v>1.745756983757019</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7758453488349915</v>
+        <v>2.404510974884033</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2308555245399475</v>
+        <v>1.142298340797424</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5033504962921143</v>
+        <v>1.773404359817505</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.943643048230843</v>
+        <v>0.8384056547563348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7513959935971001</v>
+        <v>0.7331443755962856</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05235746694746823</v>
+        <v>0.5277165075255128</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9828864894374633</v>
+        <v>0.718497013193651</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9295461731930794</v>
+        <v>0.640072039537291</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2365180552005768</v>
+        <v>0.6781768202781677</v>
       </c>
       <c r="H12" t="n">
-        <v>1.662416219711304</v>
+        <v>1.784464955329895</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8491320610046387</v>
+        <v>2.674339532852173</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2524324655532837</v>
+        <v>1.200780987739563</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5507822632789612</v>
+        <v>1.937560081481934</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9429489580788644</v>
+        <v>0.8293217183227777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7466564703990253</v>
+        <v>0.7276269562175033</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1380585984006397</v>
+        <v>0.4826265360276805</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9814874577198073</v>
+        <v>0.706098006563717</v>
       </c>
       <c r="F13" t="n">
-        <v>0.923803553062549</v>
+        <v>0.6114445983808436</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2394310235977173</v>
+        <v>0.7163002490997314</v>
       </c>
       <c r="H13" t="n">
-        <v>1.694109320640564</v>
+        <v>1.821359872817993</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9182831048965454</v>
+        <v>2.929664850234985</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2730688452720642</v>
+        <v>1.253670215606689</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5956760048866272</v>
+        <v>2.09166693687439</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9419522382722604</v>
+        <v>0.8204990928307349</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7421563807348898</v>
+        <v>0.7224381946448988</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2182386019450437</v>
+        <v>0.4404984221188499</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9801687572397972</v>
+        <v>0.6945669536028534</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9184216372252665</v>
+        <v>0.58471869711529</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2436140179634094</v>
+        <v>0.7533268928527832</v>
       </c>
       <c r="H14" t="n">
-        <v>1.724201440811157</v>
+        <v>1.856057167053223</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9829791784286499</v>
+        <v>3.168218374252319</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2925203442573547</v>
+        <v>1.302857160568237</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6377498507499695</v>
+        <v>2.235537528991699</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.940760643468739</v>
+        <v>0.8120469110167249</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7379379873495979</v>
+        <v>0.7176071527928138</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2927691244059669</v>
+        <v>0.4015592414510224</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789413220719961</v>
+        <v>0.6836399349331821</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9134173639416273</v>
+        <v>0.5599093902681367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2486149072647095</v>
+        <v>0.7887989282608032</v>
       </c>
       <c r="H15" t="n">
-        <v>1.752409934997559</v>
+        <v>1.888362407684326</v>
       </c>
       <c r="I15" t="n">
-        <v>1.043116807937622</v>
+        <v>3.38871431350708</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3106255531311035</v>
+        <v>1.349467515945435</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6768714189529419</v>
+        <v>2.369090795516968</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9394549751923355</v>
+        <v>0.8040431999323456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7340207416318327</v>
+        <v>0.7131414968005529</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3617104817973031</v>
+        <v>0.365883419928802</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778107672660303</v>
+        <v>0.6731930205523524</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9087929492453969</v>
+        <v>0.5370065621069094</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2540945112705231</v>
+        <v>0.8223887085914612</v>
       </c>
       <c r="H16" t="n">
-        <v>1.778604507446289</v>
+        <v>1.918224215507507</v>
       </c>
       <c r="I16" t="n">
-        <v>1.098744630813599</v>
+        <v>3.590731382369995</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3273018002510071</v>
+        <v>1.394029974937439</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7130234241485596</v>
+        <v>2.492380857467651</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.938094464607489</v>
+        <v>0.7965355627990535</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7304082373763123</v>
+        <v>0.7090337459290006</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4252516855335446</v>
+        <v>0.3334126628522245</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9767779710937208</v>
+        <v>0.6631929758687342</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9045394779241002</v>
+        <v>0.5159667245016111</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2598042786121368</v>
+        <v>0.8538967370986938</v>
       </c>
       <c r="H17" t="n">
-        <v>1.802761316299438</v>
+        <v>1.945692777633667</v>
       </c>
       <c r="I17" t="n">
-        <v>1.150015115737915</v>
+        <v>3.774599313735962</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3425360321998596</v>
+        <v>1.436686277389526</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7462754845619202</v>
+        <v>2.605642318725586</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9367221384625052</v>
+        <v>0.7895476229136676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7270937803084523</v>
+        <v>0.7052683869227343</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4836517100041382</v>
+        <v>0.3040036952563607</v>
       </c>
       <c r="E18" t="n">
-        <v>0.975840349176385</v>
+        <v>0.6536546847780309</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9006410555254121</v>
+        <v>0.4967200890644203</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2655636668205261</v>
+        <v>0.8832235932350159</v>
       </c>
       <c r="H18" t="n">
-        <v>1.824925184249878</v>
+        <v>1.970871686935425</v>
       </c>
       <c r="I18" t="n">
-        <v>1.197137236595154</v>
+        <v>3.941129684448242</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3563663959503174</v>
+        <v>1.477372884750366</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7767518758773804</v>
+        <v>2.709250926971436</v>
       </c>
     </row>
     <row r="19">
@@ -1121,293 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9353685303069817</v>
+        <v>0.7830831820228775</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7240642825135289</v>
+        <v>0.7018251654537047</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5372101788776185</v>
+        <v>0.2774577507007453</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9749930325084895</v>
+        <v>0.6446078781733769</v>
       </c>
       <c r="F19" t="n">
-        <v>0.897077723181679</v>
+        <v>0.4791737539155349</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2712444365024567</v>
+        <v>0.910353422164917</v>
       </c>
       <c r="H19" t="n">
-        <v>1.845183372497559</v>
+        <v>1.993896484375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.240352749824524</v>
+        <v>4.091447830200195</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3688647449016571</v>
+        <v>1.515962958335876</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8046088218688965</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_2_1_18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9340549444408291</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7213030327798293</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.5862416029371107</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9742298639276352</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.8938274060149796</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2767572700977325</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.863647937774658</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.279915571212769</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.3801218271255493</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.8300185799598694</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_2_1_19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9327956440270703</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7187916344072887</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-0.6310638725185029</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9735440220454085</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.8908672261956633</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2820422947406769</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.880441665649414</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.316082000732422</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.390238344669342</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.8531601428985596</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_2_1_20</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9315997681311809</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7165111883597035</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.6719877448852549</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9729285939583843</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.8881746734469291</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2870611250400543</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.89569091796875</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.349102854728699</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.3993161916732788</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.8742095232009888</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_2_1_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.93047276747828</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7144430449766183</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.7093082891583606</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9723768822751866</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.8857282237372068</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.2917909026145935</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.909520626068115</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.379216313362122</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.4074541926383972</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.8933349847793579</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_2_1_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9294171794613952</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7125693353096283</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.7433080904278464</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9718825441370893</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.8835072059628629</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.296220988035202</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.92205023765564</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.406650185585022</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4147459268569946</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.9106981158256531</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_2_1_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9284334935475468</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.710873156609797</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.7742544611600548</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9714397587434758</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.8814924107851685</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3003493249416351</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.933392524719238</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.431620478630066</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.4212772250175476</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.9264490604400635</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_2_1_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9275207581309645</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7093387036035463</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.8023952121398175</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9710431179158632</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8796660064481989</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.304179847240448</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.943653345108032</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.454326868057251</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.427127867937088</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.9407272338867188</v>
+        <v>2.803705930709839</v>
       </c>
     </row>
   </sheetData>
